--- a/_documentação/fase-04/Fase04_RF(Requisitos_Funcionais).xlsx
+++ b/_documentação/fase-04/Fase04_RF(Requisitos_Funcionais).xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dougl\Meu Drive\Douglas\FIAP\Graduação\GulliverTraveller\_documentação\fase-04\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BFE5B48-3831-4E81-AA79-A2AA92AE0A5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="14625" windowHeight="12345"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -232,14 +238,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -255,152 +255,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -409,210 +265,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.4"/>
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.15"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -620,251 +290,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -872,95 +300,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
-    <cellStyle name="40% - Ênfase 4" xfId="3" builtinId="43"/>
-    <cellStyle name="Porcentagem" xfId="4" builtinId="5"/>
-    <cellStyle name="Célula Vinculada" xfId="5" builtinId="24"/>
-    <cellStyle name="Célula de Verificação" xfId="6" builtinId="23"/>
-    <cellStyle name="Moeda [0]" xfId="7" builtinId="7"/>
-    <cellStyle name="20% - Ênfase 3" xfId="8" builtinId="38"/>
-    <cellStyle name="Moeda" xfId="9" builtinId="4"/>
-    <cellStyle name="Hyperlink seguido" xfId="10" builtinId="9"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8"/>
-    <cellStyle name="40% - Ênfase 2" xfId="12" builtinId="35"/>
-    <cellStyle name="Observação" xfId="13" builtinId="10"/>
-    <cellStyle name="40% - Ênfase 6" xfId="14" builtinId="51"/>
-    <cellStyle name="Texto de Aviso" xfId="15" builtinId="11"/>
-    <cellStyle name="Título" xfId="16" builtinId="15"/>
-    <cellStyle name="Texto Explicativo" xfId="17" builtinId="53"/>
-    <cellStyle name="Ênfase 3" xfId="18" builtinId="37"/>
-    <cellStyle name="Título 1" xfId="19" builtinId="16"/>
-    <cellStyle name="Ênfase 4" xfId="20" builtinId="41"/>
-    <cellStyle name="Título 2" xfId="21" builtinId="17"/>
-    <cellStyle name="Ênfase 5" xfId="22" builtinId="45"/>
-    <cellStyle name="Título 3" xfId="23" builtinId="18"/>
-    <cellStyle name="Ênfase 6" xfId="24" builtinId="49"/>
-    <cellStyle name="Título 4" xfId="25" builtinId="19"/>
-    <cellStyle name="Entrada" xfId="26" builtinId="20"/>
-    <cellStyle name="Saída" xfId="27" builtinId="21"/>
-    <cellStyle name="Cálculo" xfId="28" builtinId="22"/>
-    <cellStyle name="Total" xfId="29" builtinId="25"/>
-    <cellStyle name="40% - Ênfase 1" xfId="30" builtinId="31"/>
-    <cellStyle name="Bom" xfId="31" builtinId="26"/>
-    <cellStyle name="Ruim" xfId="32" builtinId="27"/>
-    <cellStyle name="Neutro" xfId="33" builtinId="28"/>
-    <cellStyle name="20% - Ênfase 5" xfId="34" builtinId="46"/>
-    <cellStyle name="Ênfase 1" xfId="35" builtinId="29"/>
-    <cellStyle name="20% - Ênfase 1" xfId="36" builtinId="30"/>
-    <cellStyle name="60% - Ênfase 1" xfId="37" builtinId="32"/>
-    <cellStyle name="20% - Ênfase 6" xfId="38" builtinId="50"/>
-    <cellStyle name="Ênfase 2" xfId="39" builtinId="33"/>
-    <cellStyle name="20% - Ênfase 2" xfId="40" builtinId="34"/>
-    <cellStyle name="60% - Ênfase 2" xfId="41" builtinId="36"/>
-    <cellStyle name="40% - Ênfase 3" xfId="42" builtinId="39"/>
-    <cellStyle name="60% - Ênfase 3" xfId="43" builtinId="40"/>
-    <cellStyle name="20% - Ênfase 4" xfId="44" builtinId="42"/>
-    <cellStyle name="60% - Ênfase 4" xfId="45" builtinId="44"/>
-    <cellStyle name="40% - Ênfase 5" xfId="46" builtinId="47"/>
-    <cellStyle name="60% - Ênfase 5" xfId="47" builtinId="48"/>
-    <cellStyle name="60% - Ênfase 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1218,461 +602,461 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="10.2857142857143" customWidth="1"/>
-    <col min="2" max="2" width="79.1428571428571" customWidth="1"/>
+    <col min="1" max="1" width="10.296875" customWidth="1"/>
+    <col min="2" max="2" width="93.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="7"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="4"/>
-      <c r="B4" s="6" t="s">
+      <c r="A4" s="11"/>
+      <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="4"/>
-      <c r="B7" s="6" t="s">
+      <c r="A7" s="11"/>
+      <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="4"/>
-      <c r="B10" s="8" t="s">
+    <row r="10" spans="1:2" ht="26">
+      <c r="A10" s="11"/>
+      <c r="B10" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="4"/>
-      <c r="B13" s="6" t="s">
+      <c r="A13" s="11"/>
+      <c r="B13" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="4"/>
+      <c r="A16" s="11"/>
       <c r="B16" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="4"/>
+      <c r="A19" s="11"/>
       <c r="B19" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="4"/>
+      <c r="A22" s="11"/>
       <c r="B22" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="4"/>
+      <c r="A25" s="11"/>
       <c r="B25" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="4"/>
+      <c r="A28" s="11"/>
       <c r="B28" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="9"/>
-      <c r="B29" s="9"/>
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="4"/>
+      <c r="A31" s="11"/>
       <c r="B31" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="4"/>
-      <c r="B32" s="10" t="s">
+      <c r="A32" s="11"/>
+      <c r="B32" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="4"/>
-      <c r="B33" s="10" t="s">
+      <c r="A33" s="11"/>
+      <c r="B33" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="4"/>
-      <c r="B34" s="10" t="s">
+      <c r="A34" s="11"/>
+      <c r="B34" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="4"/>
-      <c r="B35" s="10" t="s">
+      <c r="A35" s="11"/>
+      <c r="B35" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="4"/>
-      <c r="B36" s="10" t="s">
+      <c r="A36" s="11"/>
+      <c r="B36" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="4"/>
-      <c r="B37" s="10" t="s">
+      <c r="A37" s="11"/>
+      <c r="B37" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="4"/>
-      <c r="B38" s="10" t="s">
+      <c r="A38" s="11"/>
+      <c r="B38" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="4"/>
-      <c r="B39" s="10" t="s">
+      <c r="A39" s="11"/>
+      <c r="B39" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="4"/>
-      <c r="B40" s="10" t="s">
+      <c r="A40" s="11"/>
+      <c r="B40" s="5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="4"/>
-      <c r="B41" s="10" t="s">
+      <c r="A41" s="11"/>
+      <c r="B41" s="5" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="4"/>
-      <c r="B42" s="10" t="s">
+      <c r="A42" s="11"/>
+      <c r="B42" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="9"/>
-      <c r="B43" s="9"/>
+      <c r="A43" s="10"/>
+      <c r="B43" s="10"/>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="4" t="s">
+      <c r="A44" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="4"/>
+      <c r="A45" s="11"/>
       <c r="B45" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
-      <c r="A46" s="9"/>
+    <row r="46" spans="1:2">
+      <c r="A46" s="4"/>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="4"/>
+      <c r="A48" s="11"/>
       <c r="B48" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="9"/>
-      <c r="B49" s="11"/>
+      <c r="A49" s="4"/>
+      <c r="B49" s="6"/>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="4" t="s">
+      <c r="A50" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" s="4"/>
+      <c r="A51" s="11"/>
       <c r="B51" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
-      <c r="A52" s="9"/>
+    <row r="52" spans="1:2">
+      <c r="A52" s="4"/>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="4" t="s">
+      <c r="A53" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="4"/>
+      <c r="A54" s="11"/>
       <c r="B54" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
-      <c r="A55" s="9"/>
+    <row r="55" spans="1:2">
+      <c r="A55" s="4"/>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="4" t="s">
+      <c r="A56" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B56" s="1" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="4"/>
+      <c r="A57" s="11"/>
       <c r="B57" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
-      <c r="A58" s="9"/>
+    <row r="58" spans="1:2">
+      <c r="A58" s="4"/>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="4" t="s">
+      <c r="A59" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="B59" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="4"/>
+      <c r="A60" s="11"/>
       <c r="B60" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
-      <c r="A61" s="9"/>
+    <row r="61" spans="1:2">
+      <c r="A61" s="4"/>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="4" t="s">
+      <c r="A62" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="B62" s="1" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="4"/>
+      <c r="A63" s="11"/>
       <c r="B63" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
-      <c r="A64" s="9"/>
+    <row r="64" spans="1:2">
+      <c r="A64" s="4"/>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="4" t="s">
+      <c r="A65" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="B65" s="1" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="4"/>
+      <c r="A66" s="11"/>
       <c r="B66" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
-      <c r="A67" s="9"/>
+    <row r="67" spans="1:2">
+      <c r="A67" s="4"/>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="4" t="s">
+      <c r="A68" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="B68" s="1" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="4"/>
+      <c r="A69" s="11"/>
       <c r="B69" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="9"/>
-      <c r="B70" s="11"/>
+      <c r="A70" s="4"/>
+      <c r="B70" s="6"/>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="4" t="s">
+      <c r="A71" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="B71" s="5" t="s">
+      <c r="B71" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="4"/>
+      <c r="A72" s="11"/>
       <c r="B72" t="s">
         <v>70</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="A56:A57"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="A43:B43"/>
     <mergeCell ref="A3:A4"/>
@@ -1685,18 +1069,17 @@
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A30:A42"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A11:B11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/_documentação/fase-04/Fase04_RF(Requisitos_Funcionais).xlsx
+++ b/_documentação/fase-04/Fase04_RF(Requisitos_Funcionais).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dougl\Meu Drive\Douglas\FIAP\Graduação\GulliverTraveller\_documentação\fase-04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BFE5B48-3831-4E81-AA79-A2AA92AE0A5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{357967B4-A43D-4903-82DB-CE6D50CA4079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
   <si>
     <t>FR - (REQUISITOS FUNCIONAIS)</t>
   </si>
@@ -55,18 +55,12 @@
     <t>RF04</t>
   </si>
   <si>
-    <t>Nesta função, o sistema irá buscar os restaurantes de acordo com o tipo de culinária escolhido.</t>
-  </si>
-  <si>
     <t>RF05</t>
   </si>
   <si>
     <t>FILTRAR SUGESTÕES DE RESTAURANTES</t>
   </si>
   <si>
-    <t>Os restaurantes deverão ser exibidos por nome, em orderm alfabética.</t>
-  </si>
-  <si>
     <t>RF06</t>
   </si>
   <si>
@@ -88,12 +82,6 @@
     <t>RF08</t>
   </si>
   <si>
-    <t>(CARDS) EXIBIR HORÁRIO DE FUNCIONAMENTO</t>
-  </si>
-  <si>
-    <t>Todas as sugestões de restaurantes devem acompanhar o horário de funcionamento.</t>
-  </si>
-  <si>
     <t>RF09</t>
   </si>
   <si>
@@ -103,9 +91,6 @@
     <t>Nesta função, o usuário deverá escolher o restaurante desejado.</t>
   </si>
   <si>
-    <t>RF010</t>
-  </si>
-  <si>
     <t>EXIBIR INFORMAÇÕES</t>
   </si>
   <si>
@@ -118,9 +103,6 @@
     <t>• Imagens dos pratos</t>
   </si>
   <si>
-    <t>• Horários</t>
-  </si>
-  <si>
     <t>• Localização</t>
   </si>
   <si>
@@ -145,101 +127,47 @@
     <t>• Recomendação dos usuários</t>
   </si>
   <si>
-    <t>RF11</t>
-  </si>
-  <si>
-    <t>EXIBIR DESCRIÇÃO</t>
-  </si>
-  <si>
-    <t>Ao selecionar o restaurante, deve ser exibida uma breve descrição sobre o local.</t>
-  </si>
-  <si>
-    <t>RF12</t>
-  </si>
-  <si>
-    <t>EXIBIR IMAGENS (PRATOS)</t>
-  </si>
-  <si>
-    <t>Ao selecionar o restaurante, devem ser exibidas algumas imagens dos seus principais pratos.</t>
-  </si>
-  <si>
-    <t>RF13</t>
-  </si>
-  <si>
-    <t>EXIBIR HORÁRIOS</t>
-  </si>
-  <si>
-    <t>Ao selecionar o restaurante, deve ser exibido se horário de funcionamento</t>
-  </si>
-  <si>
-    <t>RF14</t>
-  </si>
-  <si>
-    <t>EXIBIR LOCALIZAÇÃO (MAPA)</t>
-  </si>
-  <si>
-    <t>Ao selecionar o restaurante, deve ser exibido um mapa com sua localização.</t>
-  </si>
-  <si>
-    <t>RF15</t>
-  </si>
-  <si>
-    <t>EXIBIR ROTA (COMO CHEGAR)</t>
-  </si>
-  <si>
-    <t>Ao selecionar o mapa, deve ser traçada uma rota de acordo com a localização do usuário.</t>
-  </si>
-  <si>
-    <t>RF16</t>
-  </si>
-  <si>
-    <t>EXIBIR SE HÁ OPÇÃO DE ESTACIONAMENTO</t>
-  </si>
-  <si>
-    <t>Ao selecionar o restaurante, deve haver a informação se há ou não estacionamento no local.</t>
-  </si>
-  <si>
-    <t>RF17</t>
-  </si>
-  <si>
-    <t>EXIBIR CONTATOS</t>
-  </si>
-  <si>
-    <t>Ao selecionar o restaurante, deve ser exibido todos os tipos de contatos: Telefone, WhatsApp, etc...</t>
-  </si>
-  <si>
-    <t>RF18</t>
-  </si>
-  <si>
-    <t>EXIBIR ACESSO (SITE)</t>
-  </si>
-  <si>
-    <t>Ao selecionar o restaurante, deve ser exibido um link de acesso ao site.</t>
-  </si>
-  <si>
-    <t>RF19</t>
-  </si>
-  <si>
-    <t>AVALIAR HOTEL</t>
-  </si>
-  <si>
-    <t>Os usuários poderão avaliar e deixar comentários sobre o restaurante que visitou.</t>
-  </si>
-  <si>
-    <t>RF20</t>
-  </si>
-  <si>
-    <t>INSERIR RECOMENDAÇÕES</t>
-  </si>
-  <si>
-    <t>Permitir que o usuário insira recomendações sobre o restaurante que visitou.</t>
+    <t>(CARDS) EXIBIR FAIXA DE PREÇO</t>
+  </si>
+  <si>
+    <t>Todas as sugestões de restaurantes devem acompanhar a faixa de preço</t>
+  </si>
+  <si>
+    <t>• Horários de funcionamento</t>
+  </si>
+  <si>
+    <t>RF10</t>
+  </si>
+  <si>
+    <t>(CARDS) EXIBIR AVALIAÇÃO</t>
+  </si>
+  <si>
+    <t>Todas as sugestões de restaurantes devem acompanhar a avaliação</t>
+  </si>
+  <si>
+    <t>Os restaurantes deverão ser exibidos por nome, em ordem decrescente de avaliação</t>
+  </si>
+  <si>
+    <t>(CARDS) EXIBIR TELEFONE</t>
+  </si>
+  <si>
+    <t>Todas as sugestões de restaurantes devem acompanhar o telefone de contato</t>
+  </si>
+  <si>
+    <t>(CARDS) EXIBIR BOTÃO RESERVAR</t>
+  </si>
+  <si>
+    <t>Todas as sugestões de restaurantes devem acompanhar um botão para reservas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Inserir recomendações e avaliação </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -253,6 +181,21 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -296,7 +239,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -310,13 +253,19 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -324,13 +273,19 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -608,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B72"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="13"/>
@@ -621,17 +576,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
+      <c r="B1" s="9"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -639,447 +594,304 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="11"/>
+      <c r="A4" s="6"/>
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="6"/>
+      <c r="B7" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="11"/>
-      <c r="B7" s="2" t="s">
+    <row r="10" spans="1:2">
+      <c r="A10" s="6"/>
+      <c r="B10" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="26">
-      <c r="A10" s="11"/>
-      <c r="B10" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="11"/>
-      <c r="B13" s="2" t="s">
+      <c r="A13" s="6"/>
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="11" t="s">
-        <v>12</v>
-      </c>
       <c r="B15" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="6"/>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="11"/>
-      <c r="B16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="11" t="s">
-        <v>15</v>
-      </c>
       <c r="B18" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="6"/>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="6"/>
+      <c r="B22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="6"/>
+      <c r="B25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="11"/>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="15" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="11"/>
-      <c r="B19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="1" t="s">
+      <c r="B27" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="6"/>
+      <c r="B28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="11"/>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="15" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="11"/>
-      <c r="B22" t="s">
+      <c r="B30" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="6"/>
+      <c r="B31" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="15" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="11" t="s">
+      <c r="B33" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="1" t="s">
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="6"/>
+      <c r="B34" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="11"/>
-      <c r="B25" t="s">
+    <row r="35" spans="1:2">
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10"/>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="11" t="s">
+    <row r="37" spans="1:2">
+      <c r="A37" s="6"/>
+      <c r="B37" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="1" t="s">
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="6"/>
+      <c r="B38" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="11"/>
-      <c r="B28" t="s">
+    <row r="39" spans="1:2">
+      <c r="A39" s="6"/>
+      <c r="B39" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="10"/>
-      <c r="B29" s="10"/>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="11" t="s">
+    <row r="40" spans="1:2">
+      <c r="A40" s="6"/>
+      <c r="B40" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="6"/>
+      <c r="B41" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="1" t="s">
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="6"/>
+      <c r="B42" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="11"/>
-      <c r="B31" t="s">
+    <row r="43" spans="1:2">
+      <c r="A43" s="6"/>
+      <c r="B43" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="11"/>
-      <c r="B32" s="5" t="s">
+    <row r="44" spans="1:2">
+      <c r="A44" s="6"/>
+      <c r="B44" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="11"/>
-      <c r="B33" s="5" t="s">
+    <row r="45" spans="1:2">
+      <c r="A45" s="6"/>
+      <c r="B45" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="11"/>
-      <c r="B34" s="5" t="s">
+    <row r="46" spans="1:2">
+      <c r="A46" s="6"/>
+      <c r="B46" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="11"/>
-      <c r="B35" s="5" t="s">
+    <row r="47" spans="1:2">
+      <c r="A47" s="6"/>
+      <c r="B47" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="11"/>
-      <c r="B36" s="5" t="s">
+    <row r="48" spans="1:2">
+      <c r="A48" s="6"/>
+      <c r="B48" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="11"/>
-      <c r="B37" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="11"/>
-      <c r="B38" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="11"/>
-      <c r="B39" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="11"/>
-      <c r="B40" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="11"/>
-      <c r="B41" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="11"/>
-      <c r="B42" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="10"/>
-      <c r="B43" s="10"/>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="11"/>
-      <c r="B45" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="4"/>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="11"/>
-      <c r="B48" t="s">
+    <row r="49" spans="1:2">
+      <c r="A49" s="6"/>
+      <c r="B49" s="14" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="4"/>
-      <c r="B49" s="6"/>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="11"/>
-      <c r="B51" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="4"/>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="11"/>
-      <c r="B54" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="4"/>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="11"/>
-      <c r="B57" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="4"/>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="11"/>
-      <c r="B60" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="4"/>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="11"/>
-      <c r="B63" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" s="4"/>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="11"/>
-      <c r="B66" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="4"/>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="11"/>
-      <c r="B69" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="4"/>
-      <c r="B70" s="6"/>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="11"/>
-      <c r="B72" t="s">
-        <v>70</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A30:A42"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A26:B26"/>
+  <mergeCells count="21">
+    <mergeCell ref="A35:B35"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A36:A49"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A20:B20"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/_documentação/fase-04/Fase04_RF(Requisitos_Funcionais).xlsx
+++ b/_documentação/fase-04/Fase04_RF(Requisitos_Funcionais).xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dougl\Meu Drive\Douglas\FIAP\Graduação\GulliverTraveller\_documentação\fase-04\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{357967B4-A43D-4903-82DB-CE6D50CA4079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="19185" windowHeight="10020"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -55,33 +49,60 @@
     <t>RF04</t>
   </si>
   <si>
+    <t>FILTRAR SUGESTÕES DE RESTAURANTES</t>
+  </si>
+  <si>
+    <t>Os restaurantes deverão ser exibidos por nome, em ordem decrescente de avaliação</t>
+  </si>
+  <si>
     <t>RF05</t>
   </si>
   <si>
-    <t>FILTRAR SUGESTÕES DE RESTAURANTES</t>
+    <t>(CARDS) EXIBIR IMAGEM</t>
+  </si>
+  <si>
+    <t>Todas as sugestões de restaurantes devem acompanhar uma imagem ilustrativa do restaurante.</t>
   </si>
   <si>
     <t>RF06</t>
   </si>
   <si>
-    <t>(CARDS) EXIBIR IMAGEM</t>
-  </si>
-  <si>
-    <t>Todas as sugestões de restaurantes devem acompanhar uma imagem ilustrativa do restaurante.</t>
+    <t>(CARDS) EXIBIR ENDEREÇO</t>
+  </si>
+  <si>
+    <t>Todas as sugestões de restaurantes devem acompanhar o endereço.</t>
+  </si>
+  <si>
+    <t>(CARDS) EXIBIR FAIXA DE PREÇO</t>
+  </si>
+  <si>
+    <t>Todas as sugestões de restaurantes devem acompanhar a faixa de preço</t>
+  </si>
+  <si>
+    <t>(CARDS) EXIBIR AVALIAÇÃO</t>
+  </si>
+  <si>
+    <t>Todas as sugestões de restaurantes devem acompanhar a avaliação</t>
   </si>
   <si>
     <t>RF07</t>
   </si>
   <si>
-    <t>(CARDS) EXIBIR ENDEREÇO</t>
-  </si>
-  <si>
-    <t>Todas as sugestões de restaurantes devem acompanhar o endereço.</t>
+    <t>(CARDS) EXIBIR TELEFONE</t>
+  </si>
+  <si>
+    <t>Todas as sugestões de restaurantes devem acompanhar o telefone de contato</t>
   </si>
   <si>
     <t>RF08</t>
   </si>
   <si>
+    <t>(CARDS) EXIBIR BOTÃO RESERVAR</t>
+  </si>
+  <si>
+    <t>Todas as sugestões de restaurantes devem acompanhar um botão para reservas</t>
+  </si>
+  <si>
     <t>RF09</t>
   </si>
   <si>
@@ -91,6 +112,9 @@
     <t>Nesta função, o usuário deverá escolher o restaurante desejado.</t>
   </si>
   <si>
+    <t>RF10</t>
+  </si>
+  <si>
     <t>EXIBIR INFORMAÇÕES</t>
   </si>
   <si>
@@ -103,6 +127,9 @@
     <t>• Imagens dos pratos</t>
   </si>
   <si>
+    <t>• Horários de funcionamento</t>
+  </si>
+  <si>
     <t>• Localização</t>
   </si>
   <si>
@@ -125,39 +152,6 @@
   </si>
   <si>
     <t>• Recomendação dos usuários</t>
-  </si>
-  <si>
-    <t>(CARDS) EXIBIR FAIXA DE PREÇO</t>
-  </si>
-  <si>
-    <t>Todas as sugestões de restaurantes devem acompanhar a faixa de preço</t>
-  </si>
-  <si>
-    <t>• Horários de funcionamento</t>
-  </si>
-  <si>
-    <t>RF10</t>
-  </si>
-  <si>
-    <t>(CARDS) EXIBIR AVALIAÇÃO</t>
-  </si>
-  <si>
-    <t>Todas as sugestões de restaurantes devem acompanhar a avaliação</t>
-  </si>
-  <si>
-    <t>Os restaurantes deverão ser exibidos por nome, em ordem decrescente de avaliação</t>
-  </si>
-  <si>
-    <t>(CARDS) EXIBIR TELEFONE</t>
-  </si>
-  <si>
-    <t>Todas as sugestões de restaurantes devem acompanhar o telefone de contato</t>
-  </si>
-  <si>
-    <t>(CARDS) EXIBIR BOTÃO RESERVAR</t>
-  </si>
-  <si>
-    <t>Todas as sugestões de restaurantes devem acompanhar um botão para reservas</t>
   </si>
   <si>
     <t xml:space="preserve">• Inserir recomendações e avaliação </t>
@@ -166,8 +160,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -188,18 +188,162 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -208,24 +352,210 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.149998474074526"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -233,73 +563,356 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
+    <cellStyle name="40% - Ênfase 4" xfId="3" builtinId="43"/>
+    <cellStyle name="Porcentagem" xfId="4" builtinId="5"/>
+    <cellStyle name="Célula Vinculada" xfId="5" builtinId="24"/>
+    <cellStyle name="Célula de Verificação" xfId="6" builtinId="23"/>
+    <cellStyle name="Moeda [0]" xfId="7" builtinId="7"/>
+    <cellStyle name="20% - Ênfase 3" xfId="8" builtinId="38"/>
+    <cellStyle name="Moeda" xfId="9" builtinId="4"/>
+    <cellStyle name="Hyperlink seguido" xfId="10" builtinId="9"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8"/>
+    <cellStyle name="40% - Ênfase 2" xfId="12" builtinId="35"/>
+    <cellStyle name="Observação" xfId="13" builtinId="10"/>
+    <cellStyle name="40% - Ênfase 6" xfId="14" builtinId="51"/>
+    <cellStyle name="Texto de Aviso" xfId="15" builtinId="11"/>
+    <cellStyle name="Título" xfId="16" builtinId="15"/>
+    <cellStyle name="Texto Explicativo" xfId="17" builtinId="53"/>
+    <cellStyle name="Ênfase 3" xfId="18" builtinId="37"/>
+    <cellStyle name="Título 1" xfId="19" builtinId="16"/>
+    <cellStyle name="Ênfase 4" xfId="20" builtinId="41"/>
+    <cellStyle name="Título 2" xfId="21" builtinId="17"/>
+    <cellStyle name="Ênfase 5" xfId="22" builtinId="45"/>
+    <cellStyle name="Título 3" xfId="23" builtinId="18"/>
+    <cellStyle name="Ênfase 6" xfId="24" builtinId="49"/>
+    <cellStyle name="Título 4" xfId="25" builtinId="19"/>
+    <cellStyle name="Entrada" xfId="26" builtinId="20"/>
+    <cellStyle name="Saída" xfId="27" builtinId="21"/>
+    <cellStyle name="Cálculo" xfId="28" builtinId="22"/>
+    <cellStyle name="Total" xfId="29" builtinId="25"/>
+    <cellStyle name="40% - Ênfase 1" xfId="30" builtinId="31"/>
+    <cellStyle name="Bom" xfId="31" builtinId="26"/>
+    <cellStyle name="Ruim" xfId="32" builtinId="27"/>
+    <cellStyle name="Neutro" xfId="33" builtinId="28"/>
+    <cellStyle name="20% - Ênfase 5" xfId="34" builtinId="46"/>
+    <cellStyle name="Ênfase 1" xfId="35" builtinId="29"/>
+    <cellStyle name="20% - Ênfase 1" xfId="36" builtinId="30"/>
+    <cellStyle name="60% - Ênfase 1" xfId="37" builtinId="32"/>
+    <cellStyle name="20% - Ênfase 6" xfId="38" builtinId="50"/>
+    <cellStyle name="Ênfase 2" xfId="39" builtinId="33"/>
+    <cellStyle name="20% - Ênfase 2" xfId="40" builtinId="34"/>
+    <cellStyle name="60% - Ênfase 2" xfId="41" builtinId="36"/>
+    <cellStyle name="40% - Ênfase 3" xfId="42" builtinId="39"/>
+    <cellStyle name="60% - Ênfase 3" xfId="43" builtinId="40"/>
+    <cellStyle name="20% - Ênfase 4" xfId="44" builtinId="42"/>
+    <cellStyle name="60% - Ênfase 4" xfId="45" builtinId="44"/>
+    <cellStyle name="40% - Ênfase 5" xfId="46" builtinId="47"/>
+    <cellStyle name="60% - Ênfase 5" xfId="47" builtinId="48"/>
+    <cellStyle name="60% - Ênfase 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -557,341 +1170,342 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9.09523809523809" defaultRowHeight="12.75" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="10.296875" customWidth="1"/>
-    <col min="2" max="2" width="93.59765625" customWidth="1"/>
+    <col min="1" max="1" width="10.2952380952381" customWidth="1"/>
+    <col min="2" max="2" width="93.6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
+      <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="6"/>
-      <c r="B4" s="2" t="s">
+      <c r="A4" s="3"/>
+      <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="3"/>
+      <c r="B7" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="6"/>
-      <c r="B7" s="3" t="s">
+    <row r="10" spans="1:2">
+      <c r="A10" s="3"/>
+      <c r="B10" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="6"/>
-      <c r="B10" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="3"/>
+      <c r="B13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="6"/>
-      <c r="B13" t="s">
-        <v>41</v>
-      </c>
-    </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="1" t="s">
+      <c r="A15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="6"/>
+      <c r="A16" s="3"/>
       <c r="B16" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="1" t="s">
+      <c r="A18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="6"/>
+      <c r="A19" s="3"/>
       <c r="B19" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" s="1" t="s">
+      <c r="A21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="3"/>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="3"/>
+      <c r="B25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="9"/>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="3"/>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="9"/>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="3"/>
+      <c r="B31" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="3"/>
+      <c r="B34" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="3"/>
+      <c r="B37" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="3"/>
+      <c r="B38" s="13" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="6"/>
-      <c r="B22" t="s">
+    <row r="39" spans="1:2">
+      <c r="A39" s="3"/>
+      <c r="B39" s="13" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" s="1" t="s">
+    <row r="40" spans="1:2">
+      <c r="A40" s="3"/>
+      <c r="B40" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="3"/>
+      <c r="B41" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="3"/>
+      <c r="B42" s="13" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="6"/>
-      <c r="B25" t="s">
+    <row r="43" spans="1:2">
+      <c r="A43" s="3"/>
+      <c r="B43" s="13" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="11"/>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B27" s="12" t="s">
+    <row r="44" spans="1:2">
+      <c r="A44" s="3"/>
+      <c r="B44" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="3"/>
+      <c r="B45" s="13" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="6"/>
-      <c r="B28" t="s">
+    <row r="46" spans="1:2">
+      <c r="A46" s="3"/>
+      <c r="B46" s="13" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="11"/>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B30" s="12" t="s">
+    <row r="47" spans="1:2">
+      <c r="A47" s="3"/>
+      <c r="B47" s="13" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="6"/>
-      <c r="B31" s="13" t="s">
+    <row r="48" spans="1:2">
+      <c r="A48" s="3"/>
+      <c r="B48" s="13" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="6"/>
-      <c r="B34" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7"/>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="6"/>
-      <c r="B37" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="6"/>
-      <c r="B38" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="6"/>
-      <c r="B39" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="6"/>
-      <c r="B40" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="6"/>
-      <c r="B41" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="6"/>
-      <c r="B42" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="6"/>
-      <c r="B43" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="6"/>
-      <c r="B44" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="6"/>
-      <c r="B45" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="6"/>
-      <c r="B46" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="6"/>
-      <c r="B47" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="6"/>
-      <c r="B48" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="6"/>
+      <c r="A49" s="3"/>
       <c r="B49" s="14" t="s">
         <v>46</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A35:B35"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="A36:A49"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A20:B20"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/_documentação/fase-04/Fase04_RF(Requisitos_Funcionais).xlsx
+++ b/_documentação/fase-04/Fase04_RF(Requisitos_Funcionais).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dougl\Meu Drive\Douglas\FIAP\Graduação\GulliverTraveller\_documentação\fase-04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4BFB307-1660-43D1-9575-9D1FAA34725B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1182DC51-84FF-40B4-95F5-0365C833850D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>FR - (REQUISITOS FUNCIONAIS)</t>
   </si>
@@ -191,6 +191,15 @@
   </si>
   <si>
     <t>Permitir que o usuário possa inserir recomendações sobre o restaurante visitado.</t>
+  </si>
+  <si>
+    <t>Exibir tipos de restaurante</t>
+  </si>
+  <si>
+    <t>Nesta função o sistema deve exibir o número de restaurantes por tipo, para o destino selecionado</t>
+  </si>
+  <si>
+    <t>RF16</t>
   </si>
 </sst>
 </file>
@@ -311,23 +320,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -604,10 +613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29699EE3-CABC-4E45-B0C3-465269881A62}">
-  <dimension ref="A1:B57"/>
+  <dimension ref="A1:B60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56:A57"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
@@ -616,17 +625,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
+      <c r="B1" s="13"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -634,17 +643,17 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="11"/>
+      <c r="A4" s="10"/>
       <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14.5">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -652,7 +661,7 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="11"/>
+      <c r="A7" s="10"/>
       <c r="B7" s="3" t="s">
         <v>45</v>
       </c>
@@ -662,125 +671,125 @@
       <c r="B8" s="5"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="10" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="10"/>
+      <c r="B10" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="4"/>
+      <c r="B11" s="5"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="11"/>
-      <c r="B10" s="6" t="s">
+    <row r="13" spans="1:2">
+      <c r="A13" s="10"/>
+      <c r="B13" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="14.5">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="2" t="s">
+    <row r="14" spans="1:2" ht="14.5">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="11"/>
-      <c r="B13" s="3" t="s">
+    <row r="16" spans="1:2">
+      <c r="A16" s="10"/>
+      <c r="B16" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="14.5">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="2" t="s">
+    <row r="17" spans="1:2" ht="14.5">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="11"/>
-      <c r="B16" s="3" t="s">
+    <row r="19" spans="1:2">
+      <c r="A19" s="10"/>
+      <c r="B19" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="14.5">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12"/>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="2" t="s">
+    <row r="20" spans="1:2" ht="14.5">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="11"/>
-      <c r="B19" s="3" t="s">
+    <row r="22" spans="1:2">
+      <c r="A22" s="10"/>
+      <c r="B22" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="14.5">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="2" t="s">
+    <row r="23" spans="1:2" ht="14.5">
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="11"/>
-      <c r="B22" s="3" t="s">
+    <row r="25" spans="1:2">
+      <c r="A25" s="10"/>
+      <c r="B25" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="14.5">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="2" t="s">
+    <row r="26" spans="1:2" ht="14.5">
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="11"/>
-      <c r="B25" s="3" t="s">
+    <row r="28" spans="1:2">
+      <c r="A28" s="10"/>
+      <c r="B28" s="3" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="14.5">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="11"/>
-      <c r="B28" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="14.5">
@@ -788,17 +797,17 @@
       <c r="B29" s="1"/>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="10" t="s">
         <v>32</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="11"/>
+      <c r="A31" s="10"/>
       <c r="B31" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="14.5">
@@ -806,17 +815,17 @@
       <c r="B32" s="1"/>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="11" t="s">
+      <c r="A33" s="10" t="s">
         <v>46</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="11"/>
+      <c r="A34" s="10"/>
       <c r="B34" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="14.5">
@@ -824,166 +833,185 @@
       <c r="B35" s="1"/>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="11" t="s">
+      <c r="A36" s="10" t="s">
         <v>47</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="10"/>
+      <c r="B37" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="14.5">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="11"/>
-      <c r="B37" s="3" t="s">
+    <row r="40" spans="1:2">
+      <c r="A40" s="10"/>
+      <c r="B40" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="14.5">
-      <c r="A38" s="12"/>
-      <c r="B38" s="12"/>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B39" s="2" t="s">
+    <row r="41" spans="1:2" ht="14.5">
+      <c r="A41" s="11"/>
+      <c r="B41" s="11"/>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="11"/>
-      <c r="B40" s="3" t="s">
+    <row r="43" spans="1:2">
+      <c r="A43" s="10"/>
+      <c r="B43" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="11"/>
-      <c r="B41" s="7" t="s">
+    <row r="44" spans="1:2">
+      <c r="A44" s="10"/>
+      <c r="B44" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="11"/>
-      <c r="B42" s="7" t="s">
+    <row r="45" spans="1:2">
+      <c r="A45" s="10"/>
+      <c r="B45" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="11"/>
-      <c r="B43" s="7" t="s">
+    <row r="46" spans="1:2">
+      <c r="A46" s="10"/>
+      <c r="B46" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="11"/>
-      <c r="B44" s="7" t="s">
+    <row r="47" spans="1:2">
+      <c r="A47" s="10"/>
+      <c r="B47" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="11"/>
-      <c r="B45" s="7" t="s">
+    <row r="48" spans="1:2">
+      <c r="A48" s="10"/>
+      <c r="B48" s="7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="11"/>
-      <c r="B46" s="7" t="s">
+    <row r="49" spans="1:2">
+      <c r="A49" s="10"/>
+      <c r="B49" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="11"/>
-      <c r="B47" s="7" t="s">
+    <row r="50" spans="1:2">
+      <c r="A50" s="10"/>
+      <c r="B50" s="7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="11"/>
-      <c r="B48" s="7" t="s">
+    <row r="51" spans="1:2">
+      <c r="A51" s="10"/>
+      <c r="B51" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="11"/>
-      <c r="B49" s="7" t="s">
+    <row r="52" spans="1:2">
+      <c r="A52" s="10"/>
+      <c r="B52" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="11"/>
-      <c r="B50" s="7" t="s">
+    <row r="53" spans="1:2">
+      <c r="A53" s="10"/>
+      <c r="B53" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="11"/>
-      <c r="B51" s="7" t="s">
+    <row r="54" spans="1:2">
+      <c r="A54" s="10"/>
+      <c r="B54" s="7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="13"/>
-      <c r="B52" s="13"/>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="B53" s="2" t="s">
+    <row r="55" spans="1:2">
+      <c r="A55" s="12"/>
+      <c r="B55" s="12"/>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="11"/>
-      <c r="B54" s="3" t="s">
+    <row r="57" spans="1:2">
+      <c r="A57" s="10"/>
+      <c r="B57" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="8"/>
-      <c r="B55" s="3"/>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="B56" s="2" t="s">
+    <row r="58" spans="1:2">
+      <c r="A58" s="8"/>
+      <c r="B58" s="3"/>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="14"/>
-      <c r="B57" s="3" t="s">
+    <row r="60" spans="1:2">
+      <c r="A60" s="9"/>
+      <c r="B60" s="3" t="s">
         <v>56</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:A51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A11:B11"/>
+  <mergeCells count="26">
     <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A9:A10"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:A54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A56:A57"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
